--- a/report/time-size-geolif2.xlsx
+++ b/report/time-size-geolif2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="time-size-geolif2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1064,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,431 +1157,541 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>14792</v>
-      </c>
-      <c r="B7">
-        <v>33285</v>
-      </c>
-      <c r="C7">
-        <v>88472</v>
-      </c>
-      <c r="D7">
-        <v>471</v>
-      </c>
-      <c r="E7">
-        <v>403</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f>_xlfn.STDEV.P(A1:A5)</f>
+        <v>13.6586968631711</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:E6" si="0">_xlfn.STDEV.P(B1:B5)</f>
+        <v>749.63580490795664</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1254.8956928765035</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.1761226035642203</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.8547236990991405</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>8954</v>
+        <v>14792</v>
       </c>
       <c r="B8">
-        <v>19804</v>
+        <v>33285</v>
       </c>
       <c r="C8">
-        <v>58072</v>
+        <v>88472</v>
       </c>
       <c r="D8">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="E8">
-        <v>441</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>13046</v>
+        <v>8954</v>
       </c>
       <c r="B9">
-        <v>32346</v>
+        <v>19804</v>
       </c>
       <c r="C9">
-        <v>49574</v>
+        <v>58072</v>
       </c>
       <c r="D9">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E9">
-        <v>399</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>8681</v>
+        <v>13046</v>
       </c>
       <c r="B10">
-        <v>26989</v>
+        <v>32346</v>
       </c>
       <c r="C10">
-        <v>49093</v>
+        <v>49574</v>
       </c>
       <c r="D10">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="E10">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>8681</v>
+      </c>
+      <c r="B11">
+        <v>26989</v>
+      </c>
+      <c r="C11">
+        <v>49093</v>
+      </c>
+      <c r="D11">
+        <v>505</v>
+      </c>
+      <c r="E11">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>8643</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>26846</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>49403</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>446</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>24375</v>
+        <f>_xlfn.STDEV.P(A8:A12)</f>
+        <v>2589.5333479219767</v>
       </c>
       <c r="B13">
-        <v>67352</v>
+        <f t="shared" ref="B13:E13" si="1">_xlfn.STDEV.P(B8:B12)</f>
+        <v>4821.6307199950515</v>
       </c>
       <c r="C13">
-        <v>179611</v>
+        <f t="shared" si="1"/>
+        <v>15156.059532741352</v>
       </c>
       <c r="D13">
-        <v>630</v>
+        <f t="shared" si="1"/>
+        <v>21.378493866500509</v>
       </c>
       <c r="E13">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>17508</v>
-      </c>
-      <c r="B14">
-        <v>41951</v>
-      </c>
-      <c r="C14">
-        <v>105312</v>
-      </c>
-      <c r="D14">
-        <v>631</v>
-      </c>
-      <c r="E14">
-        <v>592</v>
+        <f t="shared" si="1"/>
+        <v>17.325126262166172</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>17766</v>
+        <v>24375</v>
       </c>
       <c r="B15">
-        <v>42339</v>
+        <v>67352</v>
       </c>
       <c r="C15">
-        <v>105894</v>
+        <v>179611</v>
       </c>
       <c r="D15">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="E15">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>17977</v>
+        <v>17508</v>
       </c>
       <c r="B16">
-        <v>42104</v>
+        <v>41951</v>
       </c>
       <c r="C16">
-        <v>105981</v>
+        <v>105312</v>
       </c>
       <c r="D16">
         <v>631</v>
       </c>
       <c r="E16">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>17478</v>
+        <v>17766</v>
       </c>
       <c r="B17">
-        <v>42074</v>
+        <v>42339</v>
       </c>
       <c r="C17">
-        <v>105942</v>
+        <v>105894</v>
       </c>
       <c r="D17">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E17">
-        <v>593</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17977</v>
+      </c>
+      <c r="B18">
+        <v>42104</v>
+      </c>
+      <c r="C18">
+        <v>105981</v>
+      </c>
+      <c r="D18">
+        <v>631</v>
+      </c>
+      <c r="E18">
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>38456</v>
+        <v>17478</v>
       </c>
       <c r="B19">
-        <v>107220</v>
+        <v>42074</v>
       </c>
       <c r="C19">
-        <v>315257</v>
+        <v>105942</v>
       </c>
       <c r="D19">
-        <v>820</v>
+        <v>622</v>
       </c>
       <c r="E19">
-        <v>787</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>33212</v>
+        <f>_xlfn.STDEV.P(A15:A19)</f>
+        <v>2683.2925595245852</v>
       </c>
       <c r="B20">
-        <v>75705</v>
+        <f t="shared" ref="B20:E20" si="2">_xlfn.STDEV.P(B15:B19)</f>
+        <v>10094.781206148056</v>
       </c>
       <c r="C20">
-        <v>182117</v>
+        <f t="shared" si="2"/>
+        <v>29532.511257934028</v>
       </c>
       <c r="D20">
-        <v>815</v>
+        <f t="shared" si="2"/>
+        <v>3.8262252939417984</v>
       </c>
       <c r="E20">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>33230</v>
-      </c>
-      <c r="B21">
-        <v>75632</v>
-      </c>
-      <c r="C21">
-        <v>183738</v>
-      </c>
-      <c r="D21">
-        <v>811</v>
-      </c>
-      <c r="E21">
-        <v>788</v>
+        <f t="shared" si="2"/>
+        <v>9.3509357820487669</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>34277</v>
+        <v>38456</v>
       </c>
       <c r="B22">
-        <v>75705</v>
+        <v>107220</v>
       </c>
       <c r="C22">
-        <v>183345</v>
+        <v>315257</v>
       </c>
       <c r="D22">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="E22">
-        <v>802</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>34429</v>
+        <v>33212</v>
       </c>
       <c r="B23">
-        <v>75551</v>
+        <v>75705</v>
       </c>
       <c r="C23">
-        <v>182359</v>
+        <v>182117</v>
       </c>
       <c r="D23">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="E23">
-        <v>792</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>33230</v>
+      </c>
+      <c r="B24">
+        <v>75632</v>
+      </c>
+      <c r="C24">
+        <v>183738</v>
+      </c>
+      <c r="D24">
+        <v>811</v>
+      </c>
+      <c r="E24">
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>43749</v>
+        <v>34277</v>
       </c>
       <c r="B25">
-        <v>167199</v>
+        <v>75705</v>
       </c>
       <c r="C25">
-        <v>494640</v>
+        <v>183345</v>
       </c>
       <c r="D25">
-        <v>1061</v>
+        <v>806</v>
       </c>
       <c r="E25">
-        <v>1003</v>
+        <v>802</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>38298</v>
+        <v>34429</v>
       </c>
       <c r="B26">
-        <v>117756</v>
+        <v>75551</v>
       </c>
       <c r="C26">
-        <v>317343</v>
+        <v>182359</v>
       </c>
       <c r="D26">
-        <v>1047</v>
+        <v>810</v>
       </c>
       <c r="E26">
-        <v>989</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>40258</v>
+        <f>_xlfn.STDEV.P(A22:A26)</f>
+        <v>1935.602583176619</v>
       </c>
       <c r="B27">
-        <v>117802</v>
+        <f t="shared" ref="B27:E27" si="3">_xlfn.STDEV.P(B22:B26)</f>
+        <v>12628.827983625401</v>
       </c>
       <c r="C27">
-        <v>316505</v>
+        <f t="shared" si="3"/>
+        <v>52950.310134691375</v>
       </c>
       <c r="D27">
-        <v>1045</v>
+        <f t="shared" si="3"/>
+        <v>4.7581509013481273</v>
       </c>
       <c r="E27">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>40307</v>
-      </c>
-      <c r="B28">
-        <v>117892</v>
-      </c>
-      <c r="C28">
-        <v>317123</v>
-      </c>
-      <c r="D28">
-        <v>1044</v>
-      </c>
-      <c r="E28">
-        <v>986</v>
+        <f t="shared" si="3"/>
+        <v>6.1449165982948868</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
+        <v>43749</v>
+      </c>
+      <c r="B29">
+        <v>167199</v>
+      </c>
+      <c r="C29">
+        <v>494640</v>
+      </c>
+      <c r="D29">
+        <v>1061</v>
+      </c>
+      <c r="E29">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>38298</v>
+      </c>
+      <c r="B30">
+        <v>117756</v>
+      </c>
+      <c r="C30">
+        <v>317343</v>
+      </c>
+      <c r="D30">
+        <v>1047</v>
+      </c>
+      <c r="E30">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>40258</v>
+      </c>
+      <c r="B31">
+        <v>117802</v>
+      </c>
+      <c r="C31">
+        <v>316505</v>
+      </c>
+      <c r="D31">
+        <v>1045</v>
+      </c>
+      <c r="E31">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>40307</v>
+      </c>
+      <c r="B32">
+        <v>117892</v>
+      </c>
+      <c r="C32">
+        <v>317123</v>
+      </c>
+      <c r="D32">
+        <v>1044</v>
+      </c>
+      <c r="E32">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>38130</v>
       </c>
-      <c r="B29">
+      <c r="B33">
         <v>117747</v>
       </c>
-      <c r="C29">
+      <c r="C33">
         <v>317090</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>1054</v>
       </c>
-      <c r="E29">
+      <c r="E33">
         <v>985</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <f>_xlfn.STDEV.P(A29:A33)</f>
+        <v>2024.8162978403745</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:E34" si="4">_xlfn.STDEV.P(B29:B33)</f>
+        <v>19759.966856247509</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>71050.441832264492</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>6.4311740763254104</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>6.4621977685614054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
         <v>2214</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B37" s="2">
         <v>6441</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C37" s="2">
         <v>21091</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D37" s="2">
         <v>210</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E37" s="3">
         <v>196</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
         <v>10823</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B38" s="5">
         <v>27854</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C38" s="5">
         <v>58922</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D38" s="5">
         <v>472</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E38" s="6">
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
         <v>19020</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B39" s="5">
         <v>47164</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C39" s="5">
         <v>120548</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D39" s="5">
         <v>627</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E39" s="6">
         <v>598</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
         <v>34720</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B40" s="5">
         <v>81962</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C40" s="5">
         <v>209363</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D40" s="5">
         <v>812</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E40" s="6">
         <v>793</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
         <v>40148</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B41" s="8">
         <v>127679</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C41" s="8">
         <v>352540</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D41" s="8">
         <v>1050</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E41" s="9">
         <v>990</v>
       </c>
     </row>
